--- a/excel/player_team_achievements.xlsx
+++ b/excel/player_team_achievements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -215,6 +215,81 @@
   </si>
   <si>
     <t>ta25BOTB2022</t>
+  </si>
+  <si>
+    <t>opm9AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_9</t>
+  </si>
+  <si>
+    <t>AFC_B</t>
+  </si>
+  <si>
+    <t>opm</t>
+  </si>
+  <si>
+    <t>opm10AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_10</t>
+  </si>
+  <si>
+    <t>opm7AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_7</t>
+  </si>
+  <si>
+    <t>opm11AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_11</t>
+  </si>
+  <si>
+    <t>opm13AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_13</t>
+  </si>
+  <si>
+    <t>opm1AFCB2025</t>
+  </si>
+  <si>
+    <t>opm_1</t>
+  </si>
+  <si>
+    <t>csc10AFCB2025</t>
+  </si>
+  <si>
+    <t>csc_10</t>
+  </si>
+  <si>
+    <t>csc</t>
+  </si>
+  <si>
+    <t>csc8AFCB2025</t>
+  </si>
+  <si>
+    <t>csc_8</t>
+  </si>
+  <si>
+    <t>csc7AFCB2025</t>
+  </si>
+  <si>
+    <t>csc_7</t>
+  </si>
+  <si>
+    <t>csc11AFCB2025</t>
+  </si>
+  <si>
+    <t>csc_11</t>
+  </si>
+  <si>
+    <t>csc1AFCB2025</t>
+  </si>
+  <si>
+    <t>csc_1</t>
   </si>
 </sst>
 </file>
@@ -2041,102 +2116,234 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" ht="23.2" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2025</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" ht="23.2" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2025</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" ht="23.2" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2025</v>
+      </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" ht="23.2" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2025</v>
+      </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" ht="23.2" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2025</v>
+      </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" ht="23.2" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2025</v>
+      </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" ht="23.2" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2025</v>
+      </c>
       <c r="G37" s="9"/>
     </row>
     <row r="38" ht="23.2" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2025</v>
+      </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" ht="23.2" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2025</v>
+      </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" ht="23.2" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2025</v>
+      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" ht="23.2" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2025</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" ht="23.2" customHeight="1">
